--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail13 Features.xlsx
@@ -4010,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4021,29 +4021,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4064,115 +4062,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4189,72 +4177,66 @@
         <v>9.975412589516602e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9151005024338531</v>
+        <v>5.59985956008223e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.6424363382455711</v>
+        <v>3.345304849646703e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.59985956008223e-07</v>
+        <v>-0.08959354223574664</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.345304849646703e-06</v>
+        <v>0.3876945776115943</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08959354223574664</v>
+        <v>0.1579596609284691</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3876945776115943</v>
+        <v>1.942873154647746</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1579596609284691</v>
+        <v>2.365180215511118</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.966877984695199</v>
+        <v>5.243537867616936</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.365180215511118</v>
+        <v>8.311370958080251e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.243537867616936</v>
+        <v>2688711945.002502</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.311370958080251e-17</v>
+        <v>4.515099999625628e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2688711945.002502</v>
+        <v>600.843295734465</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.515099999625628e-08</v>
+        <v>0.0001826757384973633</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>600.843295734465</v>
+        <v>12.69173167582309</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001826757384973633</v>
+        <v>1.035726963580559</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.69173167582309</v>
+        <v>0.02942541762638147</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.035726963580559</v>
+        <v>3.295463191802714</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02942541762638147</v>
+        <v>0.9629139592726375</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.295463191802714</v>
+        <v>0.9222934927172288</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9629139592726375</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9222934927172288</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.372550343260386</v>
       </c>
     </row>
@@ -4269,72 +4251,66 @@
         <v>9.315548608551198e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6993471410813721</v>
+        <v>3.76004331249275e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.09616699276580531</v>
+        <v>3.338092836866036e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.76004331249275e-07</v>
+        <v>-0.06144307443002973</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.338092836866036e-06</v>
+        <v>0.3136814456828333</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06144307443002973</v>
+        <v>0.1019694275983393</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3136814456828333</v>
+        <v>1.937971803384563</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1019694275983393</v>
+        <v>2.48921474966979</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.963935228220951</v>
+        <v>4.903796328532631</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.48921474966979</v>
+        <v>6.269513901833603e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.903796328532631</v>
+        <v>3304619723.331365</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.269513901833603e-17</v>
+        <v>3.666269131573498e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3304619723.331365</v>
+        <v>684.6629876363434</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.666269131573498e-08</v>
+        <v>0.000176083959309336</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>684.6629876363434</v>
+        <v>12.79936279151122</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000176083959309336</v>
+        <v>1.033936866372434</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.79936279151122</v>
+        <v>0.02884672358858142</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.033936866372434</v>
+        <v>3.489424017766709</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02884672358858142</v>
+        <v>0.9635613470974811</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.489424017766709</v>
+        <v>0.9141715200320097</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9635613470974811</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9141715200320097</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.736038140477436</v>
       </c>
     </row>
@@ -4349,72 +4325,66 @@
         <v>9.289953655830793e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7317532689089549</v>
+        <v>3.76004331249275e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.02467124183979408</v>
+        <v>3.333514607277137e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.76004331249275e-07</v>
+        <v>-0.03867249357240454</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.333514607277137e-06</v>
+        <v>0.2559667553844202</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03867249357240454</v>
+        <v>0.06692281432968966</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2559667553844202</v>
+        <v>1.939521510088449</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06692281432968966</v>
+        <v>2.624919175178296</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.963022915707011</v>
+        <v>4.750853012670762</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.624919175178296</v>
+        <v>5.624753606589848e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.750853012670762</v>
+        <v>3651419770.227665</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.624753606589848e-17</v>
+        <v>3.318213405858783e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3651419770.227665</v>
+        <v>749.9408802314897</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.318213405858783e-08</v>
+        <v>0.0001689650396606755</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>749.9408802314897</v>
+        <v>12.79976442309093</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001689650396606755</v>
+        <v>1.093686185304684</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.79976442309093</v>
+        <v>0.02768221311828038</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.093686185304684</v>
+        <v>3.922343224797636</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02768221311828038</v>
+        <v>0.9636220907845189</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.922343224797636</v>
+        <v>0.9120373428779101</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9636220907845189</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9120373428779101</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.552181322874808</v>
       </c>
     </row>
@@ -4429,72 +4399,66 @@
         <v>9.443581151322333e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7314017637301284</v>
+        <v>3.76004331249275e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.007553110384475037</v>
+        <v>3.330687576392341e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.76004331249275e-07</v>
+        <v>-0.02305268261627108</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.330687576392341e-06</v>
+        <v>0.2213159602366694</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02305268261627108</v>
+        <v>0.04947622786562987</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2213159602366694</v>
+        <v>1.935112453261328</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04947622786562987</v>
+        <v>2.614446470531354</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.96079000844997</v>
+        <v>5.069499954129332</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.614446470531354</v>
+        <v>6.381981631336945e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.069499954129332</v>
+        <v>3204908722.713937</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.381981631336945e-17</v>
+        <v>3.776893948223757e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3204908722.713937</v>
+        <v>655.5214090274274</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.776893948223757e-08</v>
+        <v>0.0001680902989847172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>655.5214090274274</v>
+        <v>12.64918599181588</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001680902989847172</v>
+        <v>1.208799508977196</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.64918599181588</v>
+        <v>0.02689476826062027</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.208799508977196</v>
+        <v>4.324123724922448</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02689476826062027</v>
+        <v>0.9630549331451265</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.324123724922448</v>
+        <v>0.948234675805805</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9630549331451265</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.948234675805805</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.523097102585613</v>
       </c>
     </row>
@@ -4871,7 +4835,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411069304244143</v>
+        <v>1.384425467646369</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.938470834577716</v>
@@ -4960,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.418455324992303</v>
+        <v>1.39083813500266</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.931887398232296</v>
@@ -5049,7 +5013,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408039820577591</v>
+        <v>1.379740744881494</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.971889922148884</v>
@@ -5138,7 +5102,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.419274360632064</v>
+        <v>1.385313338718503</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.970868623987348</v>
@@ -5227,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.407637052352501</v>
+        <v>1.374440421973567</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.985928626359316</v>
@@ -5316,7 +5280,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.378532641633015</v>
+        <v>1.351635158031901</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.080301877880153</v>
@@ -5405,7 +5369,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.37732733929447</v>
+        <v>1.351975732125909</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.994450682355543</v>
@@ -5494,7 +5458,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389144575734755</v>
+        <v>1.362148143718622</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.988614776742693</v>
@@ -5583,7 +5547,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.389344035756553</v>
+        <v>1.363427660043796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.021387509926728</v>
@@ -5672,7 +5636,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.390438658430284</v>
+        <v>1.365310027467295</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.062788750461546</v>
@@ -5761,7 +5725,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.36979016255378</v>
+        <v>1.344479570948083</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.052147298582345</v>
@@ -5850,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.362383691796835</v>
+        <v>1.341398645104193</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.115347960232128</v>
@@ -5939,7 +5903,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.379941555507529</v>
+        <v>1.361461030278025</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.103667181144619</v>
@@ -6028,7 +5992,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.393206945346334</v>
+        <v>1.374151509196803</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.006042849978995</v>
@@ -6117,7 +6081,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.39168191471135</v>
+        <v>1.371835798979837</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.090750439235411</v>
@@ -6206,7 +6170,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.367508930374872</v>
+        <v>1.34275034642312</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.091518719779695</v>
@@ -6295,7 +6259,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.358378101630664</v>
+        <v>1.3409870592456</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.056368511114536</v>
@@ -6384,7 +6348,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.370089287593378</v>
+        <v>1.334079399654047</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.185275068124753</v>
@@ -6473,7 +6437,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.350778024334802</v>
+        <v>1.323110904906774</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.168642351091751</v>
@@ -6562,7 +6526,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.33674754223767</v>
+        <v>1.30922199195033</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.164085971599144</v>
@@ -6651,7 +6615,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.33340256499706</v>
+        <v>1.305008659907255</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.146761115073803</v>
@@ -6740,7 +6704,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.314642470705392</v>
+        <v>1.290327193195197</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.276695299187725</v>
@@ -6829,7 +6793,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.304941684080774</v>
+        <v>1.278893949325318</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.251337679098103</v>
@@ -6918,7 +6882,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.306279611150869</v>
+        <v>1.281432976969044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.302395991685218</v>
@@ -7007,7 +6971,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.30733572754345</v>
+        <v>1.283108369824083</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.245351846652769</v>
@@ -7096,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.318277581131022</v>
+        <v>1.293331644598598</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.229718064773419</v>
@@ -7185,7 +7149,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.335601164737092</v>
+        <v>1.306849108633922</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.262274282651339</v>
@@ -7274,7 +7238,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.337598463969186</v>
+        <v>1.307162430064664</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.317403629262971</v>
@@ -7363,7 +7327,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.326901211142021</v>
+        <v>1.297576010106816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.322656656582911</v>
@@ -7452,7 +7416,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.327974224526911</v>
+        <v>1.298141874040925</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.288667311454771</v>
@@ -7541,7 +7505,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.341021237255335</v>
+        <v>1.309276935252238</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.271141711327638</v>
@@ -7630,7 +7594,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.342720091549818</v>
+        <v>1.311095446820243</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.333859151670076</v>
@@ -7719,7 +7683,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.331018809515309</v>
+        <v>1.310233442539075</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.239405534566349</v>
@@ -7808,7 +7772,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.341886635208488</v>
+        <v>1.3193966209737</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.097829515223346</v>
@@ -7897,7 +7861,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.351432497390666</v>
+        <v>1.330540738157482</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.191599551767801</v>
@@ -7986,7 +7950,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.385304658723477</v>
+        <v>1.361429142321078</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.140363528592212</v>
@@ -8075,7 +8039,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.425852937078934</v>
+        <v>1.393263344343024</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.480357913421549</v>
@@ -8164,7 +8128,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.427168176821532</v>
+        <v>1.40058677263823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.447737340445895</v>
@@ -8253,7 +8217,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42216521666252</v>
+        <v>1.387085884930869</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.427058997129723</v>
@@ -8342,7 +8306,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.414413080851963</v>
+        <v>1.375190714109974</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.496882025916907</v>
@@ -8431,7 +8395,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.412767481498101</v>
+        <v>1.374908279275283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.540352030766122</v>
@@ -8520,7 +8484,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.390803412434255</v>
+        <v>1.357606387383886</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.552388595562684</v>
@@ -8609,7 +8573,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.373656464283766</v>
+        <v>1.341851712917366</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.42955278910696</v>
@@ -8698,7 +8662,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.344730497061791</v>
+        <v>1.315403653925208</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.13908569147587</v>
@@ -8787,7 +8751,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.340792100654927</v>
+        <v>1.313846221630484</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.186319476567004</v>
@@ -8876,7 +8840,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.346794408490987</v>
+        <v>1.317781221904429</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.128322802538407</v>
@@ -8965,7 +8929,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.351612964818969</v>
+        <v>1.322535033488223</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.061979655506379</v>
@@ -9054,7 +9018,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.355328305439317</v>
+        <v>1.32406709273113</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.076610937444166</v>
@@ -9143,7 +9107,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.370985046636209</v>
+        <v>1.337899273683092</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.178406107461165</v>
@@ -9429,7 +9393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.427877463992491</v>
+        <v>1.411384987063767</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.898049620651566</v>
@@ -9518,7 +9482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.429075912796856</v>
+        <v>1.407723944760169</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.892135343647268</v>
@@ -9607,7 +9571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.4239411019455</v>
+        <v>1.398409055649191</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.933608629817555</v>
@@ -9696,7 +9660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.424764603040031</v>
+        <v>1.396680748257378</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.965402556380506</v>
@@ -9785,7 +9749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427040945630265</v>
+        <v>1.393128506719048</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.9520334627363</v>
@@ -9874,7 +9838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.388735122549319</v>
+        <v>1.359031090692782</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.995772966952675</v>
@@ -9963,7 +9927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387057328146664</v>
+        <v>1.357422106918929</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.980265650661794</v>
@@ -10052,7 +10016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389753284487953</v>
+        <v>1.358246838953265</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.967348354446688</v>
@@ -10141,7 +10105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.395824016745894</v>
+        <v>1.364047415941387</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.977678776326916</v>
@@ -10230,7 +10194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.387122780295888</v>
+        <v>1.354644028771043</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.039379787989175</v>
@@ -10319,7 +10283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.358941635419463</v>
+        <v>1.325618167342558</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.060222148698366</v>
@@ -10408,7 +10372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.345843208155057</v>
+        <v>1.315942809929575</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.096487787389042</v>
@@ -10497,7 +10461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.368592971601791</v>
+        <v>1.339814835893831</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.041232396300021</v>
@@ -10586,7 +10550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.375501647296759</v>
+        <v>1.346989151439954</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.959789442937897</v>
@@ -10675,7 +10639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.374959086995916</v>
+        <v>1.346236772439361</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.019304275194611</v>
@@ -10764,7 +10728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351154880874622</v>
+        <v>1.315994180309054</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.044733496802926</v>
@@ -10853,7 +10817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.332587410622077</v>
+        <v>1.305203578871694</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.070313128873222</v>
@@ -10942,7 +10906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.343254673380534</v>
+        <v>1.299562219938005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.112394859709503</v>
@@ -11031,7 +10995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.324695073846535</v>
+        <v>1.286853838946642</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.137815318975175</v>
@@ -11120,7 +11084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.301900306879997</v>
+        <v>1.264968971538134</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.102075656901303</v>
@@ -11209,7 +11173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.299443143381986</v>
+        <v>1.262423262388622</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.125929649920467</v>
@@ -11298,7 +11262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.282672351157559</v>
+        <v>1.252406942869675</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.221450722811194</v>
@@ -11387,7 +11351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.276962095032792</v>
+        <v>1.244871811387071</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.237963914958009</v>
@@ -11476,7 +11440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.275171710019411</v>
+        <v>1.242844739246228</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.246014146234554</v>
@@ -11565,7 +11529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.276378126300672</v>
+        <v>1.246187260012813</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.178195342454033</v>
@@ -11654,7 +11618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.28469450359028</v>
+        <v>1.252999423353755</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.248253773700906</v>
@@ -11743,7 +11707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.284801529565932</v>
+        <v>1.255870883844602</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.245133289560294</v>
@@ -11832,7 +11796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.285626080292748</v>
+        <v>1.256632120247661</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.30565298988723</v>
@@ -11921,7 +11885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.276548280952636</v>
+        <v>1.248888081869997</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.304387415267279</v>
@@ -12010,7 +11974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.275706064435616</v>
+        <v>1.248255543443006</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.271716454841027</v>
@@ -12099,7 +12063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.286104049609466</v>
+        <v>1.258219942799784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.264299341792129</v>
@@ -12188,7 +12152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.290882770206036</v>
+        <v>1.262118894957589</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.319942908337587</v>
@@ -12277,7 +12241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.275661653801077</v>
+        <v>1.258038293580235</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.190396806505423</v>
@@ -12366,7 +12330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.28434940397117</v>
+        <v>1.26598443097621</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.084120477702917</v>
@@ -12455,7 +12419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.294021765762001</v>
+        <v>1.278324109252158</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.172315477381247</v>
@@ -12544,7 +12508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.322089067384954</v>
+        <v>1.305089976668344</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.079817670408454</v>
@@ -12633,7 +12597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.354173584301624</v>
+        <v>1.331730221339523</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.187636113472013</v>
@@ -12722,7 +12686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.356631444453395</v>
+        <v>1.338527167250732</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.332807651504241</v>
@@ -12811,7 +12775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.358771694601024</v>
+        <v>1.333922097983809</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.306819639149064</v>
@@ -12900,7 +12864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.357455698254432</v>
+        <v>1.327155394501123</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.232330518017233</v>
@@ -12989,7 +12953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.379552507440265</v>
+        <v>1.345729542392119</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.451921461732007</v>
@@ -13078,7 +13042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.376242466450902</v>
+        <v>1.343071494250772</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.306300482681112</v>
@@ -13167,7 +13131,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.363419904922144</v>
+        <v>1.331547583946384</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.37953725471148</v>
@@ -13256,7 +13220,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.336737007097244</v>
+        <v>1.306707182781924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.111785306028917</v>
@@ -13345,7 +13309,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.334593980192487</v>
+        <v>1.305993123176411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.155570289163501</v>
@@ -13434,7 +13398,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.345423613845526</v>
+        <v>1.315529499520898</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.08964923452081</v>
@@ -13523,7 +13487,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.350904007893864</v>
+        <v>1.321296903625855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.013730864776986</v>
@@ -13612,7 +13576,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.358760981663294</v>
+        <v>1.324760341968221</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.042888187509461</v>
@@ -13701,7 +13665,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.370745575409727</v>
+        <v>1.337289817161387</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.17657446388383</v>
@@ -13987,7 +13951,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.436303076263399</v>
+        <v>1.418269862332212</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.894920212885763</v>
@@ -14076,7 +14040,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.441536079698857</v>
+        <v>1.416948948652838</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.923494320190294</v>
@@ -14165,7 +14129,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433763947155917</v>
+        <v>1.405378186338445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.935696632032677</v>
@@ -14254,7 +14218,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.437510065478173</v>
+        <v>1.406947362758417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.949989491181931</v>
@@ -14343,7 +14307,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.432141286684054</v>
+        <v>1.400434342698323</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.960181273983447</v>
@@ -14432,7 +14396,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.396470623766564</v>
+        <v>1.370467349953014</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.989524762362082</v>
@@ -14521,7 +14485,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393789440765872</v>
+        <v>1.370735670874247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.949337014566519</v>
@@ -14610,7 +14574,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400949172294124</v>
+        <v>1.378433329960837</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.955582044104131</v>
@@ -14699,7 +14663,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.408964242708633</v>
+        <v>1.388476077322257</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.981012261633599</v>
@@ -14788,7 +14752,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.405909687755864</v>
+        <v>1.384670404332334</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.011974357618886</v>
@@ -14877,7 +14841,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.377937349693714</v>
+        <v>1.354459676924801</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.027749063590034</v>
@@ -14966,7 +14930,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.363079035544573</v>
+        <v>1.341641635168078</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.053498684689382</v>
@@ -15055,7 +15019,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.384187652735094</v>
+        <v>1.363218214729856</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.029311444062213</v>
@@ -15144,7 +15108,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.399127208070904</v>
+        <v>1.377156796183716</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.9231698554696</v>
@@ -15233,7 +15197,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.394245483302055</v>
+        <v>1.371629345218399</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.001545677082859</v>
@@ -15322,7 +15286,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.366193007437023</v>
+        <v>1.338437278013529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.008101602553828</v>
@@ -15411,7 +15375,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.348349861587345</v>
+        <v>1.329699319694788</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.027982980667391</v>
@@ -15500,7 +15464,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.356636849997199</v>
+        <v>1.319792317204535</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.115054120433336</v>
@@ -15589,7 +15553,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.334510703986046</v>
+        <v>1.303083542070233</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.157181644746069</v>
@@ -15678,7 +15642,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.313889291530388</v>
+        <v>1.281403563518869</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.120928748516729</v>
@@ -15767,7 +15731,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.310726677327839</v>
+        <v>1.277156824880289</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.105524871280512</v>
@@ -15856,7 +15820,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.294368339067228</v>
+        <v>1.266691295123217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.232476995339021</v>
@@ -15945,7 +15909,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.287459086956051</v>
+        <v>1.257376031813846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.240378822084268</v>
@@ -16034,7 +15998,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.288900610351371</v>
+        <v>1.259487661784289</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.249452553902624</v>
@@ -16123,7 +16087,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289541232705743</v>
+        <v>1.262334111727996</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.202035782050208</v>
@@ -16212,7 +16176,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.308042555947625</v>
+        <v>1.283771379090451</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.228370362072724</v>
@@ -16301,7 +16265,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.329793541979587</v>
+        <v>1.301987371423691</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.244710600712716</v>
@@ -16390,7 +16354,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.33220996443026</v>
+        <v>1.303390343187309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.305293115418034</v>
@@ -16479,7 +16443,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.319817939848794</v>
+        <v>1.292659180001876</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.292966640920463</v>
@@ -16568,7 +16532,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.321880711599062</v>
+        <v>1.294636509866484</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.273669919722114</v>
@@ -16657,7 +16621,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.334125739509904</v>
+        <v>1.30581996870816</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.261156348982347</v>
@@ -16746,7 +16710,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.337196893672979</v>
+        <v>1.307175045017481</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.334750636473771</v>
@@ -16835,7 +16799,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.32657190576782</v>
+        <v>1.307941651942444</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.197110273486455</v>
@@ -16924,7 +16888,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.341576068048306</v>
+        <v>1.323021461360447</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.082952363150816</v>
@@ -17013,7 +16977,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.353466049951512</v>
+        <v>1.337179500424212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.183996243218451</v>
@@ -17102,7 +17066,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389954149724371</v>
+        <v>1.371580706363845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.092719394983718</v>
@@ -17191,7 +17155,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.433207697220482</v>
+        <v>1.403589650922481</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.446228070236441</v>
@@ -17280,7 +17244,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431021540605745</v>
+        <v>1.407470464176699</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.348630748996994</v>
@@ -17369,7 +17333,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.425597208621145</v>
+        <v>1.39443262687071</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.399409983524952</v>
@@ -17458,7 +17422,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.421178552195406</v>
+        <v>1.384991297786788</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.469570459601177</v>
@@ -17547,7 +17511,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.411811394602356</v>
+        <v>1.373745587605827</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.500002518426186</v>
@@ -17636,7 +17600,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.387884771293443</v>
+        <v>1.354766683221088</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.440654491445844</v>
@@ -17725,7 +17689,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.37421762122755</v>
+        <v>1.341457413897254</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.373684717028618</v>
@@ -17814,7 +17778,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.347299876159024</v>
+        <v>1.315945324438728</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.099587937062499</v>
@@ -17903,7 +17867,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.342524688505303</v>
+        <v>1.312667363867829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.156041730306613</v>
@@ -17992,7 +17956,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.353307894733698</v>
+        <v>1.321504886337822</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.085837350209706</v>
@@ -18081,7 +18045,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.360520860588602</v>
+        <v>1.330054539095826</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.023395876565042</v>
@@ -18170,7 +18134,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.365604229544459</v>
+        <v>1.330898796282307</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.048669038952157</v>
@@ -18259,7 +18223,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.375857026597087</v>
+        <v>1.340430355825702</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.168223520193549</v>
@@ -18545,7 +18509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398530324800138</v>
+        <v>1.374173432596918</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.852944554343917</v>
@@ -18634,7 +18598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.401153707984803</v>
+        <v>1.373538435253574</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.866271771753591</v>
@@ -18723,7 +18687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.398844703300957</v>
+        <v>1.370306853961904</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.885121692647766</v>
@@ -18812,7 +18776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.402114740352083</v>
+        <v>1.367605929579004</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.908446475838441</v>
@@ -18901,7 +18865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387787020937943</v>
+        <v>1.35066158740385</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.933251806514449</v>
@@ -18990,7 +18954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.354467126560302</v>
+        <v>1.32322002153182</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.953463449724307</v>
@@ -19079,7 +19043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.3485717825418</v>
+        <v>1.320057591965269</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.929105528751676</v>
@@ -19168,7 +19132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.349515946626373</v>
+        <v>1.320222243653416</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.924121374813161</v>
@@ -19257,7 +19221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.356290474044503</v>
+        <v>1.330880846756248</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.946322261910354</v>
@@ -19346,7 +19310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.354630409966176</v>
+        <v>1.326328756961872</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.981920829394977</v>
@@ -19435,7 +19399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.33283046035283</v>
+        <v>1.300777580502458</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.988803071502398</v>
@@ -19524,7 +19488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.322178276930223</v>
+        <v>1.293092303105301</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.036325294943057</v>
@@ -19613,7 +19577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.344409708424127</v>
+        <v>1.315698159875035</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.00011322887795</v>
@@ -19702,7 +19666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.356154864924966</v>
+        <v>1.322899085993458</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.90561286924805</v>
@@ -19791,7 +19755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.355201804014333</v>
+        <v>1.32332767262838</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.983880106296847</v>
@@ -19880,7 +19844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.335909258141544</v>
+        <v>1.30083112093357</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.992940693997045</v>
@@ -19969,7 +19933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.319208775054</v>
+        <v>1.292509749569706</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.999212111039843</v>
@@ -20058,7 +20022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.335110143327614</v>
+        <v>1.289822994708655</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.097173900306219</v>
@@ -20147,7 +20111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.31684719923993</v>
+        <v>1.278482623312944</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.115424532096251</v>
@@ -20236,7 +20200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.304018229222183</v>
+        <v>1.265968489245712</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.091994846386333</v>
@@ -20325,7 +20289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.302339191069793</v>
+        <v>1.262020036887371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.061832296029957</v>
@@ -20414,7 +20378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.289941368501525</v>
+        <v>1.25642815920489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.20534029168337</v>
@@ -20503,7 +20467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.285889989748402</v>
+        <v>1.250224065574368</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.209411827873921</v>
@@ -20592,7 +20556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.287311734395614</v>
+        <v>1.253468188291479</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.214728211844049</v>
@@ -20681,7 +20645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.293893399327084</v>
+        <v>1.264317011169211</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.214556372979713</v>
@@ -20770,7 +20734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.31851771381465</v>
+        <v>1.293435880442995</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.231368131854296</v>
@@ -20859,7 +20823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.341291577924922</v>
+        <v>1.312939914782519</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.254560857215083</v>
@@ -20948,7 +20912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.341081110075568</v>
+        <v>1.311802788949693</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.313110481387556</v>
@@ -21037,7 +21001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.330920083305919</v>
+        <v>1.304929384578995</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.319896754777144</v>
@@ -21126,7 +21090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.3327702295485</v>
+        <v>1.305814594891576</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.272877504323054</v>
@@ -21215,7 +21179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.343267782027819</v>
+        <v>1.315003309015978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.262838833129021</v>
@@ -21304,7 +21268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.349091286813993</v>
+        <v>1.319178983965731</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.339991707126338</v>
@@ -21393,7 +21357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.338304173399516</v>
+        <v>1.32010904300145</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.221329147232546</v>
@@ -21482,7 +21446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.352591539752011</v>
+        <v>1.334786780780578</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.089306422483766</v>
@@ -21571,7 +21535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.362608912247125</v>
+        <v>1.347163487874815</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.184226531539523</v>
@@ -21660,7 +21624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.397325274653401</v>
+        <v>1.379032775115362</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.093900720219999</v>
@@ -21749,7 +21713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.438332450133499</v>
+        <v>1.408081494786551</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.481199071793087</v>
@@ -21838,7 +21802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.438312503741647</v>
+        <v>1.412073353303293</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367467284067948</v>
@@ -21927,7 +21891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433509236141272</v>
+        <v>1.399372271293311</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.397784499411919</v>
@@ -22016,7 +21980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.423638664950365</v>
+        <v>1.382535359805427</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.476064537597694</v>
@@ -22105,7 +22069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.410054601584839</v>
+        <v>1.366658950317847</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.519944247041853</v>
@@ -22194,7 +22158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.385877933915875</v>
+        <v>1.347525481392432</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.482606037419365</v>
@@ -22283,7 +22247,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.371812056231529</v>
+        <v>1.333577419705599</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.420694174593536</v>
@@ -22372,7 +22336,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.346577593956711</v>
+        <v>1.311012920432819</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.12356987280814</v>
@@ -22461,7 +22425,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.346000273030222</v>
+        <v>1.313513612441467</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.171860329266473</v>
@@ -22550,7 +22514,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.35687088363144</v>
+        <v>1.322978769234015</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.111595806054222</v>
@@ -22639,7 +22603,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.363495465183503</v>
+        <v>1.329877895443663</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.043115292167191</v>
@@ -22728,7 +22692,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.370571371764452</v>
+        <v>1.333410249169575</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.055349788642148</v>
@@ -22817,7 +22781,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.380486088714739</v>
+        <v>1.342654173618916</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.166168795361065</v>
@@ -23103,7 +23067,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.290476776335294</v>
+        <v>1.247379850020498</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.689164361484441</v>
@@ -23192,7 +23156,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.304655513492786</v>
+        <v>1.259521469650196</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.7173674064013</v>
@@ -23281,7 +23245,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.307208330605193</v>
+        <v>1.261849006581895</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.73618207303966</v>
@@ -23370,7 +23334,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.313387560705489</v>
+        <v>1.266887784182097</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.779339090714306</v>
@@ -23459,7 +23423,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.316572535761239</v>
+        <v>1.26676591194622</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.806119239859113</v>
@@ -23548,7 +23512,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.292596721062296</v>
+        <v>1.252044656749078</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.857375999951346</v>
@@ -23637,7 +23601,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.29232127003495</v>
+        <v>1.253142599820208</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.837414678042676</v>
@@ -23726,7 +23690,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.298161492182976</v>
+        <v>1.2589251328588</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.84910968247982</v>
@@ -23815,7 +23779,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.309372517089709</v>
+        <v>1.271933587378701</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.868123555462149</v>
@@ -23904,7 +23868,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.311971448337487</v>
+        <v>1.272225633583941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.908700104960548</v>
@@ -23993,7 +23957,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.295531346862949</v>
+        <v>1.25328713593367</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.941677720743034</v>
@@ -24082,7 +24046,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.288156095904057</v>
+        <v>1.249263162022378</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.974100011311046</v>
@@ -24171,7 +24135,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.302761667808401</v>
+        <v>1.264143508601313</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.92744542732276</v>
@@ -24260,7 +24224,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.311708482762175</v>
+        <v>1.27159639577847</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.838092332894176</v>
@@ -24349,7 +24313,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.311856912030937</v>
+        <v>1.272969948422102</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.918673326296744</v>
@@ -24438,7 +24402,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.299542015087085</v>
+        <v>1.255791541782448</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.94050889511721</v>
@@ -24527,7 +24491,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.285105109821341</v>
+        <v>1.248843910496729</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.956917665291198</v>
@@ -24616,7 +24580,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.309898368631954</v>
+        <v>1.256777988790221</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.050693754345369</v>
@@ -24705,7 +24669,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.297141708772618</v>
+        <v>1.252697920810937</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.087722594382542</v>
@@ -24794,7 +24758,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.280133792443131</v>
+        <v>1.236589842640154</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.066072780636463</v>
@@ -24883,7 +24847,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.277731660333511</v>
+        <v>1.232008990612357</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.050133593052835</v>
@@ -24972,7 +24936,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.264925197723699</v>
+        <v>1.22563354853221</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.178438981450623</v>
@@ -25061,7 +25025,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.26178562987052</v>
+        <v>1.22012170310358</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.180508224854872</v>
@@ -25150,7 +25114,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.260055921106484</v>
+        <v>1.219228669897457</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.17900445445806</v>
@@ -25239,7 +25203,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.261721083937107</v>
+        <v>1.222580575731098</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.144455053945795</v>
@@ -25328,7 +25292,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.265479891548877</v>
+        <v>1.228771300368228</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.159320205438149</v>
@@ -25417,7 +25381,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.284103838671336</v>
+        <v>1.245266500522027</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.175701053380764</v>
@@ -25506,7 +25470,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.289824894325379</v>
+        <v>1.250509396289939</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.226635564014042</v>
@@ -25595,7 +25559,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.281661549170282</v>
+        <v>1.244064673584174</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.237244136637066</v>
@@ -25684,7 +25648,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.281111360420627</v>
+        <v>1.243016720224831</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.209114632875592</v>
@@ -25773,7 +25737,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.292094394586147</v>
+        <v>1.25414791330928</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.201077962562975</v>
@@ -25862,7 +25826,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.299538602878231</v>
+        <v>1.260516948171969</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.264123948866661</v>
@@ -25951,7 +25915,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.281286376262803</v>
+        <v>1.25398991377125</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.132240792243774</v>
@@ -26040,7 +26004,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.291745686932107</v>
+        <v>1.265168985980498</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.006583616569861</v>
@@ -26129,7 +26093,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.300643546568882</v>
+        <v>1.277930252406542</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.096666310810805</v>
@@ -26218,7 +26182,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.330224291530376</v>
+        <v>1.30616490878283</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.998418260764923</v>
@@ -26307,7 +26271,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.368876721055841</v>
+        <v>1.33663803813252</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.265736427588444</v>
@@ -26396,7 +26360,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.373334185396904</v>
+        <v>1.347011130846121</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.21120830369513</v>
@@ -26485,7 +26449,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.37520391294112</v>
+        <v>1.34217817238319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.242465030109942</v>
@@ -26574,7 +26538,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.376688005702102</v>
+        <v>1.33889762291537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.406703567448019</v>
@@ -26663,7 +26627,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.382491528218338</v>
+        <v>1.34274771801624</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.476631734097035</v>
@@ -26752,7 +26716,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.36378950404038</v>
+        <v>1.328786069895703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.360600876213085</v>
@@ -26841,7 +26805,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.350810405651829</v>
+        <v>1.315800320994893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.352844647403384</v>
@@ -26930,7 +26894,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.326424928173988</v>
+        <v>1.293716847669698</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.079041292616015</v>
@@ -27019,7 +26983,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.326389755497904</v>
+        <v>1.295233267348789</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.136098334395781</v>
@@ -27108,7 +27072,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.336332045413533</v>
+        <v>1.302402280296407</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.062071408644679</v>
@@ -27197,7 +27161,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.339780852584628</v>
+        <v>1.307236107818599</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.988471637435026</v>
@@ -27286,7 +27250,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.350053106884002</v>
+        <v>1.31293336122961</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.030944020069473</v>
@@ -27375,7 +27339,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.363010969339548</v>
+        <v>1.325029297265824</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.153584648054961</v>
@@ -27661,7 +27625,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.38787752462247</v>
+        <v>1.355930343530709</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.864133277437784</v>
@@ -27750,7 +27714,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.396779423076145</v>
+        <v>1.362632943150688</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.85568908617489</v>
@@ -27839,7 +27803,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.395383455336252</v>
+        <v>1.360371206540037</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.867747620843889</v>
@@ -27928,7 +27892,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404677702675258</v>
+        <v>1.362433994065386</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.881475441049053</v>
@@ -28017,7 +27981,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387666453422861</v>
+        <v>1.344836219556023</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.911911342271572</v>
@@ -28106,7 +28070,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355096133085165</v>
+        <v>1.319680905938899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.000614641043697</v>
@@ -28195,7 +28159,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.353735254871986</v>
+        <v>1.319132358530645</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.928475789733582</v>
@@ -28284,7 +28248,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.351601850617431</v>
+        <v>1.319027224771097</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.914696490742627</v>
@@ -28373,7 +28337,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.353155418618486</v>
+        <v>1.323170952635205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.949839160653016</v>
@@ -28462,7 +28426,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.347487355787961</v>
+        <v>1.315751629363733</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.977984150494279</v>
@@ -28551,7 +28515,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.325592370428443</v>
+        <v>1.291098644540234</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.988826257941125</v>
@@ -28640,7 +28604,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.315768171520766</v>
+        <v>1.283087951200351</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.024955673208074</v>
@@ -28729,7 +28693,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.331910557654632</v>
+        <v>1.301059425287818</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.003148467512325</v>
@@ -28818,7 +28782,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.345296540789059</v>
+        <v>1.311290327677087</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.925501268671251</v>
@@ -28907,7 +28871,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.340964789346764</v>
+        <v>1.30691120534067</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.989645611626876</v>
@@ -28996,7 +28960,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.322456100682202</v>
+        <v>1.285776879102129</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.006862587835453</v>
@@ -29085,7 +29049,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.312628025790239</v>
+        <v>1.284752233910165</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.023696089524017</v>
@@ -29174,7 +29138,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.329948069747277</v>
+        <v>1.284218833745421</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.113656657643361</v>
@@ -29263,7 +29227,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.316821590226003</v>
+        <v>1.279359626428622</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.096385158924867</v>
@@ -29352,7 +29316,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.300046540698919</v>
+        <v>1.263894343672744</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.085079475486904</v>
@@ -29441,7 +29405,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.299178376122889</v>
+        <v>1.261770889807975</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.077189282293105</v>
@@ -29530,7 +29494,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.28569002246377</v>
+        <v>1.253803807402445</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.221218948780727</v>
@@ -29619,7 +29583,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.279819676116656</v>
+        <v>1.245499423032345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.198465870648674</v>
@@ -29708,7 +29672,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.277448146069428</v>
+        <v>1.243506660732325</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.22822792533723</v>
@@ -29797,7 +29761,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.285721749566634</v>
+        <v>1.251639058597389</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.223565593172824</v>
@@ -29886,7 +29850,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.29458168393402</v>
+        <v>1.263284510424352</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.244879870066676</v>
@@ -29975,7 +29939,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.308893873074297</v>
+        <v>1.274976548834337</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.267820369007773</v>
@@ -30064,7 +30028,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.31318041872273</v>
+        <v>1.278052122148401</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.294551980811038</v>
@@ -30153,7 +30117,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.304802680634832</v>
+        <v>1.2727497482435</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.304897495738445</v>
@@ -30242,7 +30206,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.308390200803353</v>
+        <v>1.275823443885496</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.273645176306088</v>
@@ -30331,7 +30295,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.320260168178562</v>
+        <v>1.286852598064324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.252548929001209</v>
@@ -30420,7 +30384,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.323259175063358</v>
+        <v>1.289431259778276</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.319042111194427</v>
@@ -30509,7 +30473,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.307415824528261</v>
+        <v>1.285131321373951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.220392965148848</v>
@@ -30598,7 +30562,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.318369683554242</v>
+        <v>1.294261065194473</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.075179766490462</v>
@@ -30687,7 +30651,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.329676826062558</v>
+        <v>1.307253631396639</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.166588364036663</v>
@@ -30776,7 +30740,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.363823646036455</v>
+        <v>1.338766394335257</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.080371303589768</v>
@@ -30865,7 +30829,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.400240258081328</v>
+        <v>1.364681193844181</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.476962326888641</v>
@@ -30954,7 +30918,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.401472047361674</v>
+        <v>1.371228812213809</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.378797994627335</v>
@@ -31043,7 +31007,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.405382913806912</v>
+        <v>1.369923414156139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.525239684240458</v>
@@ -31132,7 +31096,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.403780203728465</v>
+        <v>1.361470787103644</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.476182145646086</v>
@@ -31221,7 +31185,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.402741023157611</v>
+        <v>1.35950088367623</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.495242066611281</v>
@@ -31310,7 +31274,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.386153600634807</v>
+        <v>1.347012125620682</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.431003613044554</v>
@@ -31399,7 +31363,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.368921718196314</v>
+        <v>1.33095130594983</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.379362808937711</v>
@@ -31488,7 +31452,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.341670502913016</v>
+        <v>1.306117380412846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.101378510332733</v>
@@ -31577,7 +31541,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.341888806738405</v>
+        <v>1.308268431529851</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.156839653161573</v>
@@ -31666,7 +31630,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.350988446138029</v>
+        <v>1.313770812534649</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.090662320126217</v>
@@ -31755,7 +31719,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.359047217482565</v>
+        <v>1.319129302541067</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.016785263949761</v>
@@ -31844,7 +31808,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.366677806057669</v>
+        <v>1.324874835410086</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.020376683046621</v>
@@ -31933,7 +31897,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.378101920444522</v>
+        <v>1.336826157969251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.153187983898193</v>
